--- a/howTo26/How to Succeed cast list.xlsx
+++ b/howTo26/How to Succeed cast list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Seagate X/RVCOprod/website/howTo26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150AD958-5B7D-444E-9C8B-8F5315B52522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3332FEE-C5AB-6C46-9661-B5D2B6487684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39660" yWindow="760" windowWidth="37060" windowHeight="23860" xr2:uid="{E38B6315-D279-724B-88A4-0AE2C1BF2347}"/>
+    <workbookView xWindow="-38460" yWindow="600" windowWidth="36120" windowHeight="20240" xr2:uid="{E38B6315-D279-724B-88A4-0AE2C1BF2347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
-  <si>
-    <t>EMERGENCY CONTACT</t>
-  </si>
-  <si>
-    <t>PERMISSION TO USE PHOTO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
   <si>
     <t xml:space="preserve">EMERGENCY CONTACT </t>
   </si>
@@ -188,9 +182,6 @@
     <t>laura hull</t>
   </si>
   <si>
-    <t>mcrubino@gmail.com</t>
-  </si>
-  <si>
     <t>Marc Rubino</t>
   </si>
   <si>
@@ -218,9 +209,6 @@
     <t>610-662-9204</t>
   </si>
   <si>
-    <t>lisa melli gillespie</t>
-  </si>
-  <si>
     <t>sharon.weil@chalker.net</t>
   </si>
   <si>
@@ -257,9 +245,6 @@
     <t>booboosharon@hotmail.com</t>
   </si>
   <si>
-    <t>6104906798/609-484-8738</t>
-  </si>
-  <si>
     <t>Rob Hull</t>
   </si>
   <si>
@@ -269,9 +254,6 @@
     <t>Ovington, TV host, Policeman</t>
   </si>
   <si>
-    <t>Toynbee/Peterson</t>
-  </si>
-  <si>
     <t>TIm Broido</t>
   </si>
   <si>
@@ -299,9 +281,6 @@
     <t>Twimble, Womper</t>
   </si>
   <si>
-    <t>Davis/Matthews</t>
-  </si>
-  <si>
     <t>Bigley</t>
   </si>
   <si>
@@ -318,6 +297,84 @@
   </si>
   <si>
     <t>Tackaberrry</t>
+  </si>
+  <si>
+    <t>mcrubino@icloud.com</t>
+  </si>
+  <si>
+    <t>ellen.kecskem@gmail.com</t>
+  </si>
+  <si>
+    <t>Ellen Kecskemethy Tillman</t>
+  </si>
+  <si>
+    <t>Costumer</t>
+  </si>
+  <si>
+    <t>Props</t>
+  </si>
+  <si>
+    <t>graceusagi92@gmail.com</t>
+  </si>
+  <si>
+    <t>Grace Albert</t>
+  </si>
+  <si>
+    <t>Laura Hull</t>
+  </si>
+  <si>
+    <t>lmarkow07@gmail.com</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Stage Manager</t>
+  </si>
+  <si>
+    <t>kathleenmichael@comcast.net</t>
+  </si>
+  <si>
+    <t>(610) 490-6798
+(609) 484-8738</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>PERMISSION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TO USE PHOTO</t>
+    </r>
+  </si>
+  <si>
+    <t>Lisa Melli Gillespie</t>
+  </si>
+  <si>
+    <t>Toynbee, Peterson</t>
+  </si>
+  <si>
+    <t>Davis, Matthews</t>
   </si>
 </sst>
 </file>
@@ -325,9 +382,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="\(###\)\ ###\-####"/>
+    <numFmt numFmtId="164" formatCode="\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,6 +427,17 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -397,20 +465,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -422,33 +489,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,727 +869,808 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F7ED49-52CF-4541-B2C5-A25309BA53F3}">
-  <dimension ref="A1:H39"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
+      <c r="E1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2153787815</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2153787816</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="14"/>
+      <c r="A2" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7">
-        <v>6109998893</v>
+        <v>39</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3029810460</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5">
-        <v>6109998892</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="E3" s="25">
+        <v>3024941291</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7">
-        <v>6103688668</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5">
-        <v>6103562386</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="14"/>
+      <c r="A4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="28">
+        <v>3034948820</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2158963528</v>
+        <v>30</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2158175406</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5">
-        <v>6107169026</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="E5" s="25">
+        <v>2152005544</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="17">
-        <v>2674732386</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="18">
-        <v>2159900644</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="14"/>
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6103487631</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="25">
+        <v>61034087631</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2155935314</v>
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="16">
+        <v>6103080987</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2155935315</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>77</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E7" s="24">
+        <v>6105470348</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7">
-        <v>6103487631</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2158963528</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="5">
-        <v>61034087631</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="E8" s="25">
+        <v>6107169026</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2676943311</v>
+        <v>42</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2676796297</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2155434108</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="E9" s="25">
+        <v>2672071991</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5">
-        <v>6104209796</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2158175406</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2152005544</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="14"/>
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2155190327</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2674732386</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="27">
+        <v>2159900644</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>36</v>
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C12" s="7">
-        <v>3025303838</v>
+        <v>6103892619</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4847233678</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="E12" s="25">
+        <v>4844375278</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="7">
-        <v>6105722500</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3025303838</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="5">
-        <v>6105435126</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="E13" s="25">
+        <v>4847233678</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3029810460</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2676943311</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3024941291</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="E14" s="25">
+        <v>2155434108</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2676796297</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2672071991</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="7">
+        <v>69</v>
+      </c>
+      <c r="E15" s="25">
         <v>6106270433</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="14"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="28">
+        <v>6104209796</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="6">
+        <v>6102465681</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="7">
-        <v>2677816868</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2672071991</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="14"/>
+      <c r="E17" s="25">
+        <v>3123997926</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="7">
-        <v>6102465681</v>
+        <v>7</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6109998893</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="5">
-        <v>3123997926</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="7">
-        <v>6108252258</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="5">
-        <v>5612743839</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="14"/>
+        <v>9</v>
+      </c>
+      <c r="E18" s="25">
+        <v>6109998892</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="31">
+        <v>2677816868</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="29">
+        <v>2672071991</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2153787815</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="25">
+        <v>2153787816</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="5">
-        <v>3034948820</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="7">
-        <v>4844375278</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="5">
-        <v>6107048442</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="14"/>
+      <c r="A21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="31">
+        <v>2155935314</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="29">
+        <v>2155935315</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="8">
-        <v>6103892619</v>
+      <c r="C22" s="6">
+        <v>6106270433</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="5">
-        <v>4844375278</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2155190327</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="31">
+        <v>6103688668</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="29">
+        <v>6103562386</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="7">
-        <v>6102914298</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="14"/>
+      <c r="A24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="31">
+        <v>6108252258</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="29">
+        <v>5612743839</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="6">
+        <v>6102914298</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4844375278</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="25">
+        <v>6107048442</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6105722500</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="25">
+        <v>6105435126</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="16">
+        <v>2158406582</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="22">
-        <v>6103080987</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B31" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="16">
+        <v>2679344650</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="22">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="16">
         <v>6105470348</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="14"/>
+      <c r="D32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="16">
+        <v>61030809876</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="14"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="14"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="14"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="14"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="14"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="14"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F39" s="9"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F42" s="8"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G29">
+    <sortCondition ref="B3:B29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="91" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/howTo26/How to Succeed cast list.xlsx
+++ b/howTo26/How to Succeed cast list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Seagate X/RVCOprod/website/howTo26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEC9888-6055-1043-8AD3-83894706D5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A92861-439B-3344-BAE3-3F05FC72FD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29000" yWindow="1680" windowWidth="28980" windowHeight="21000" xr2:uid="{E38B6315-D279-724B-88A4-0AE2C1BF2347}"/>
+    <workbookView xWindow="-29000" yWindow="1660" windowWidth="28980" windowHeight="21000" xr2:uid="{E38B6315-D279-724B-88A4-0AE2C1BF2347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t xml:space="preserve">EMERGENCY CONTACT </t>
   </si>
@@ -47,15 +47,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>mariem@caramanico.com</t>
-  </si>
-  <si>
-    <t>Marie Maguire</t>
-  </si>
-  <si>
-    <t>Dan Caramanico</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -195,9 +186,6 @@
   </si>
   <si>
     <t>albert.u.melli@gmail.com</t>
-  </si>
-  <si>
-    <t>610-662-9204</t>
   </si>
   <si>
     <t>sharon.weil@chalker.net</t>
@@ -863,10 +851,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -889,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>0</v>
@@ -898,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -918,25 +906,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="13">
         <v>2676796297</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="11">
         <v>2672071991</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H3" s="30">
         <v>1</v>
@@ -944,25 +932,25 @@
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="23">
         <v>6103892619</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E4" s="11">
         <v>4844375278</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H4" s="30">
         <v>2</v>
@@ -970,25 +958,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="13">
         <v>2158175406</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" s="11">
         <v>2152005544</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H5" s="25">
         <v>3</v>
@@ -996,25 +984,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="13">
         <v>3029810460</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" s="11">
         <v>3024941291</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H6" s="25">
         <v>4</v>
@@ -1022,25 +1010,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C7" s="13">
         <v>6106270433</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H7" s="25">
         <v>5</v>
@@ -1048,25 +1036,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="13">
         <v>6108252258</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="11">
         <v>5612743839</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H8" s="25">
         <v>6</v>
@@ -1074,25 +1062,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="13">
         <v>2676943311</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" s="11">
         <v>2155434108</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H9" s="25">
         <v>7</v>
@@ -1100,25 +1088,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="13">
         <v>6103487631</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E10" s="11">
         <v>61034087631</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H10" s="25">
         <v>8</v>
@@ -1126,10 +1114,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" s="13">
         <v>2155190327</v>
@@ -1137,10 +1125,10 @@
       <c r="D11" s="7"/>
       <c r="E11" s="22"/>
       <c r="F11" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H11" s="25">
         <v>9</v>
@@ -1148,25 +1136,25 @@
     </row>
     <row r="12" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="13">
         <v>6103688668</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" s="11">
         <v>6103562386</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H12" s="25">
         <v>10</v>
@@ -1174,10 +1162,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C13" s="5">
         <v>6107317668</v>
@@ -1188,7 +1176,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H13" s="25">
         <v>11</v>
@@ -1196,25 +1184,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C14" s="18">
         <v>6103080987</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E14" s="19">
         <v>6105470348</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H14" s="25">
         <v>12</v>
@@ -1222,25 +1210,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="13">
         <v>6105722500</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" s="11">
         <v>6105435126</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H15" s="25">
         <v>13</v>
@@ -1248,25 +1236,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="C16" s="13">
+        <v>6106629204</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E16" s="11">
         <v>3034948820</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H16" s="30">
         <v>14</v>
@@ -1274,25 +1262,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" s="13">
         <v>2155935314</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17" s="11">
         <v>2155935315</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H17" s="25">
         <v>14</v>
@@ -1300,25 +1288,25 @@
     </row>
     <row r="18" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" s="13">
         <v>2677816868</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E18" s="11">
         <v>2672071991</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H18" s="25">
         <v>16</v>
@@ -1326,25 +1314,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" s="13">
         <v>6109998893</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E19" s="11">
         <v>6109998892</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H19" s="25">
         <v>17</v>
@@ -1352,25 +1340,25 @@
     </row>
     <row r="21" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21" s="11">
         <v>6104209796</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H21" s="25">
         <v>18</v>
@@ -1378,25 +1366,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" s="13">
         <v>6102465681</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E22" s="11">
         <v>3123997926</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H22" s="25">
         <v>19</v>
@@ -1404,25 +1392,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13">
         <v>3025303838</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E23" s="11">
         <v>4847233678</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H23" s="25">
         <v>20</v>
@@ -1430,21 +1418,21 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E24" s="11">
         <v>6106270433</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H24" s="25">
         <v>21</v>
@@ -1452,10 +1440,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C25" s="13">
         <v>6102914298</v>
@@ -1464,7 +1452,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="9"/>
       <c r="G25" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H25" s="25">
         <v>22</v>
@@ -1472,101 +1460,92 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C26" s="13">
-        <v>2153787815</v>
+        <v>2158963528</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E26" s="11">
-        <v>2153787816</v>
+        <v>6107169026</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H26" s="25">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C27" s="13">
-        <v>2158963528</v>
+        <v>4844375278</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E27" s="11">
-        <v>6107169026</v>
+        <v>6107048442</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H27" s="25">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="13">
-        <v>4844375278</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="11">
-        <v>6107048442</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="25">
-        <v>25</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2158406582</v>
+      </c>
       <c r="D30" s="10"/>
       <c r="E30" s="18"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
@@ -1576,52 +1555,44 @@
         <v>85</v>
       </c>
       <c r="C31" s="18">
-        <v>2158406582</v>
+        <v>2679344650</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="18"/>
       <c r="F31" s="20"/>
       <c r="G31" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="18">
+        <v>6105470348</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="18">
-        <v>2679344650</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="18"/>
+      <c r="E32" s="18">
+        <v>61030809876</v>
+      </c>
       <c r="F32" s="20"/>
       <c r="G32" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="18">
-        <v>6105470348</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="18">
-        <v>61030809876</v>
-      </c>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
@@ -1664,7 +1635,7 @@
       <c r="B38" s="10"/>
       <c r="C38" s="18"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="18"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="20"/>
       <c r="G38" s="10"/>
     </row>
@@ -1680,7 +1651,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="18"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="20"/>
@@ -1696,26 +1667,17 @@
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="26"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="26"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:H28">
-    <sortCondition ref="H21:H28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:H27">
+    <sortCondition ref="H21:H27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="91" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/howTo26/How to Succeed cast list.xlsx
+++ b/howTo26/How to Succeed cast list.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Seagate X/RVCOprod/website/howTo26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A92861-439B-3344-BAE3-3F05FC72FD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC52930-6DF7-B841-9791-AA6564F2AD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29000" yWindow="1660" windowWidth="28980" windowHeight="21000" xr2:uid="{E38B6315-D279-724B-88A4-0AE2C1BF2347}"/>
+    <workbookView xWindow="900" yWindow="600" windowWidth="28980" windowHeight="21000" xr2:uid="{E38B6315-D279-724B-88A4-0AE2C1BF2347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$31</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
   <si>
     <t xml:space="preserve">EMERGENCY CONTACT </t>
   </si>
@@ -369,6 +372,15 @@
   </si>
   <si>
     <t>dbc3rd@verizon.net</t>
+  </si>
+  <si>
+    <t>Secretary, scubwoman</t>
+  </si>
+  <si>
+    <t>Secretary, Wickette girl</t>
+  </si>
+  <si>
+    <t>Miss Krumholtz</t>
   </si>
 </sst>
 </file>
@@ -436,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -444,78 +456,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -525,13 +500,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -851,835 +895,835 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="30"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="22">
         <v>2676796297</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="23">
         <v>2672071991</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="27">
         <v>6103892619</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="23">
         <v>4844375278</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="22">
         <v>2158175406</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="23">
         <v>2152005544</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="22">
         <v>3029810460</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="23">
         <v>3024941291</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="22">
         <v>6106270433</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="22">
         <v>6108252258</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="23">
         <v>5612743839</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="22">
         <v>2676943311</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="23">
         <v>2155434108</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="22">
         <v>6103487631</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="23">
         <v>61034087631</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="22">
         <v>2155190327</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="22">
         <v>6103688668</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="23">
         <v>6103562386</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="18">
         <v>6107317668</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="28">
+      <c r="D13" s="17"/>
+      <c r="E13" s="30">
         <v>6102967621</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="31">
         <v>6103080987</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="32">
         <v>6105470348</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="22">
         <v>6105722500</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="23">
         <v>6105435126</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="22">
         <v>6106629204</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="23">
         <v>3034948820</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="F16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="22">
         <v>2155935314</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="23">
         <v>2155935315</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="22">
         <v>2677816868</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="23">
         <v>2672071991</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="22">
         <v>6109998893</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="23">
         <v>6109998892</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="7">
         <v>17</v>
       </c>
     </row>
+    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="23">
+        <v>6104209796</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="7">
+        <v>18</v>
+      </c>
+    </row>
     <row r="21" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="22">
+        <v>6102465681</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="23">
+        <v>3123997926</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="22">
+        <v>3025303838</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="23">
+        <v>4847233678</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="23">
+        <v>6106270433</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="7">
         <v>21</v>
       </c>
-      <c r="B21" s="17" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="22">
+        <v>6102914298</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="7">
         <v>22</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="11">
-        <v>6104209796</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="13">
-        <v>6102465681</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="11">
-        <v>3123997926</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="13">
-        <v>3025303838</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="11">
-        <v>4847233678</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="11">
-        <v>6106270433</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="25">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="13">
-        <v>6102914298</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+    </row>
+    <row r="25" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B25" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C25" s="22">
         <v>2158963528</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D25" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E25" s="23">
         <v>6107169026</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" s="25">
+      <c r="F25" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="7">
         <v>24</v>
       </c>
     </row>
+    <row r="26" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="22">
+        <v>4844375278</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="23">
+        <v>6107048442</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="7">
+        <v>25</v>
+      </c>
+    </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="13">
-        <v>4844375278</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="11">
-        <v>6107048442</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" s="25">
-        <v>25</v>
-      </c>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
+      <c r="A28" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="10"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="31">
+        <v>2158406582</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="25" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="18">
-        <v>2158406582</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="10" t="s">
-        <v>82</v>
+      <c r="A30" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="31">
+        <v>2679344650</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="25" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="18">
-        <v>2679344650</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="10" t="s">
-        <v>83</v>
+      <c r="A31" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="31">
+        <v>6105470348</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="31">
+        <v>61030809876</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="G31" s="25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="18">
-        <v>6105470348</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="18">
-        <v>61030809876</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="10"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="10"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="10"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="10"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="10"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="10"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="10"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="10"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="26"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:H27">
-    <sortCondition ref="H21:H27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:H26">
+    <sortCondition ref="H20:H26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="91" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="89" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>